--- a/game/MMO/ExcelMMO/wing.xlsx
+++ b/game/MMO/ExcelMMO/wing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mtjmmo\branches\qy_yj_dev_1.1\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mtjmmo\branches\qy_yj_dev_2.0\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFD3E81-D51C-4359-BB5D-CA5381266F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914BF000-13AF-45A0-90F6-45304D5D712E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31920" yWindow="2715" windowWidth="22410" windowHeight="13485" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="9" r:id="rId1"/>
@@ -23,7 +23,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">wing!$A$4:$Z$484</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -36366,7 +36379,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="R11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24:U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -38302,7 +38315,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>266</v>
@@ -38377,7 +38390,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>267</v>
@@ -38452,7 +38465,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>268</v>
@@ -38527,7 +38540,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>269</v>
@@ -38602,7 +38615,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>270</v>
@@ -38677,7 +38690,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>271</v>
